--- a/요구사항/서버 요구사항.xlsx
+++ b/요구사항/서버 요구사항.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school_class\4학년 1학기 소프트웨어융합종합설계1\flask\요구사항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pat04\school_class\4학년 1학기 소프트웨어융합종합설계1\growingTypeWebRpgGame\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD83A41-2A69-4125-9F0B-042072FB66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A74264-9BC2-49E5-BED1-404B13EDD8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="405" windowWidth="12765" windowHeight="13755" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
+    <workbookView xWindow="15972" yWindow="408" windowWidth="12768" windowHeight="13752" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,67 +59,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>게임화면렌더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입-유저가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입-패스워드hash처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입-중복아이디처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인-유저확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인-쿠키연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5분동안움직임없으면 세션만료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임화면렌더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입-유저가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입-패스워드hash처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입-중복아이디처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인-유저확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용여부</t>
+    <t>클라이언트 세션설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 만료시간 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 쿠키설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인-쿠키연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠키 만료시간 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,18 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75193F5E-4DCE-451F-8964-8ECAC0A4F73C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,125 +511,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/요구사항/서버 요구사항.xlsx
+++ b/요구사항/서버 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pat04\school_class\4학년 1학기 소프트웨어융합종합설계1\growingTypeWebRpgGame\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A74264-9BC2-49E5-BED1-404B13EDD8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19339F-789B-4D58-B936-E690D8E69C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15972" yWindow="408" windowWidth="12768" windowHeight="13752" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면2에서 유저정보표현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,30 @@
   </si>
   <si>
     <t>세션 만료시간 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 전과 로그인 후 화면 구분하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75193F5E-4DCE-451F-8964-8ECAC0A4F73C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -511,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -519,51 +539,54 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -571,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -582,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -596,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -607,26 +630,40 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
